--- a/ConvertedEqual/South Carolina_Converted.xlsx
+++ b/ConvertedEqual/South Carolina_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="281">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -822,6 +822,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1219,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF221"/>
+  <dimension ref="A1:AF233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,6 +1452,12 @@
       <c r="L3" s="2">
         <v>43922</v>
       </c>
+      <c r="M3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43922</v>
+      </c>
       <c r="O3" s="2">
         <v>43927</v>
       </c>
@@ -1428,16 +1470,34 @@
       <c r="R3" s="2">
         <v>43922</v>
       </c>
+      <c r="S3" s="2">
+        <v>43908</v>
+      </c>
+      <c r="T3" s="2">
+        <v>43908</v>
+      </c>
+      <c r="U3" s="2">
+        <v>43922</v>
+      </c>
       <c r="V3" s="2">
         <v>43922</v>
       </c>
       <c r="W3" s="2">
         <v>43922</v>
       </c>
+      <c r="X3" s="2">
+        <v>43908</v>
+      </c>
       <c r="Y3" s="2">
         <v>43922</v>
       </c>
       <c r="Z3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="AB3" s="2">
         <v>43922</v>
       </c>
       <c r="AD3" s="2">
@@ -1617,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>1</v>
       </c>
       <c r="AF7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -3196,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -3294,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -3353,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -3368,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3392,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3451,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -3466,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3490,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -3549,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -3564,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3588,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3647,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3662,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3686,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -3745,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3760,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3784,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3843,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -3858,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3882,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -3941,10 +4001,10 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3956,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3980,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -4039,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -4054,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -4078,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -4137,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -4152,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -4176,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -4235,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -4250,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -4274,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -4333,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -4348,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -4372,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -4431,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -4446,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -4470,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>0.1923076923076923</v>
+        <v>0.2986111111083333</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -4529,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -4544,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -4568,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>0.2628205128153847</v>
+        <v>0.3749999999916667</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -4627,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -4642,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -4666,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>0.2628205128153847</v>
+        <v>0.3749999999916667</v>
       </c>
     </row>
     <row r="40" spans="1:32">
@@ -4707,10 +4767,10 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -4725,13 +4785,13 @@
         <v>1</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>1</v>
@@ -4740,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -4749,10 +4809,10 @@
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4764,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>0.4230769230615384</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -4805,10 +4865,10 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -4823,13 +4883,13 @@
         <v>1</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -4838,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>1</v>
@@ -4847,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4862,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>0.4230769230615384</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -4903,10 +4963,10 @@
         <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -4921,13 +4981,13 @@
         <v>1</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
         <v>1</v>
@@ -4936,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>1</v>
@@ -4945,10 +5005,10 @@
         <v>1</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4960,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>0.4230769230615384</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -5001,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -5019,13 +5079,13 @@
         <v>1</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
         <v>1</v>
@@ -5034,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -5043,10 +5103,10 @@
         <v>1</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -5058,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>0.4230769230615384</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -5099,10 +5159,10 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -5117,13 +5177,13 @@
         <v>1</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
         <v>1</v>
@@ -5132,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>1</v>
@@ -5141,10 +5201,10 @@
         <v>1</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -5156,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0.4230769230615384</v>
+        <v>0.6666666666416665</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -5197,10 +5257,10 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -5215,13 +5275,13 @@
         <v>1</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>1</v>
@@ -5230,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -5239,10 +5299,10 @@
         <v>1</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -5254,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>0.4999999999846153</v>
+        <v>0.749999999975</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -5295,10 +5355,10 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -5313,13 +5373,13 @@
         <v>1</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46">
         <v>1</v>
@@ -5328,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>1</v>
@@ -5337,10 +5397,10 @@
         <v>1</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -5352,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="47" spans="1:32">
@@ -5393,10 +5453,10 @@
         <v>1</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -5411,13 +5471,13 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>1</v>
@@ -5426,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -5435,10 +5495,10 @@
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -5450,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -5491,10 +5551,10 @@
         <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -5509,13 +5569,13 @@
         <v>1</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
         <v>1</v>
@@ -5524,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -5533,10 +5593,10 @@
         <v>1</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -5548,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="49" spans="1:32">
@@ -5589,10 +5649,10 @@
         <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -5607,13 +5667,13 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49">
         <v>1</v>
@@ -5622,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -5631,10 +5691,10 @@
         <v>1</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -5646,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="50" spans="1:32">
@@ -5687,10 +5747,10 @@
         <v>1</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -5705,13 +5765,13 @@
         <v>1</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50">
         <v>1</v>
@@ -5720,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50">
         <v>1</v>
@@ -5729,10 +5789,10 @@
         <v>1</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -5744,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="51" spans="1:32">
@@ -5785,10 +5845,10 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -5803,13 +5863,13 @@
         <v>1</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51">
         <v>1</v>
@@ -5818,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -5827,10 +5887,10 @@
         <v>1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -5842,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="52" spans="1:32">
@@ -5883,10 +5943,10 @@
         <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -5901,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52">
         <v>1</v>
@@ -5916,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>1</v>
@@ -5925,10 +5985,10 @@
         <v>1</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -5940,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="53" spans="1:32">
@@ -5981,10 +6041,10 @@
         <v>1</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -5999,13 +6059,13 @@
         <v>1</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53">
         <v>1</v>
@@ -6014,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>1</v>
@@ -6023,10 +6083,10 @@
         <v>1</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -6038,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="54" spans="1:32">
@@ -6079,10 +6139,10 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -6097,13 +6157,13 @@
         <v>1</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54">
         <v>1</v>
@@ -6112,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -6121,10 +6181,10 @@
         <v>1</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -6136,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="55" spans="1:32">
@@ -6177,10 +6237,10 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -6195,13 +6255,13 @@
         <v>1</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55">
         <v>1</v>
@@ -6210,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -6219,10 +6279,10 @@
         <v>1</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -6234,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="56" spans="1:32">
@@ -6275,10 +6335,10 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -6293,13 +6353,13 @@
         <v>1</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56">
         <v>1</v>
@@ -6308,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>1</v>
@@ -6317,10 +6377,10 @@
         <v>1</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -6332,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="57" spans="1:32">
@@ -6373,10 +6433,10 @@
         <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -6391,13 +6451,13 @@
         <v>1</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57">
         <v>1</v>
@@ -6406,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57">
         <v>1</v>
@@ -6415,10 +6475,10 @@
         <v>1</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -6430,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="58" spans="1:32">
@@ -6471,10 +6531,10 @@
         <v>1</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -6489,13 +6549,13 @@
         <v>1</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58">
         <v>1</v>
@@ -6504,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58">
         <v>1</v>
@@ -6513,10 +6573,10 @@
         <v>1</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -6528,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="59" spans="1:32">
@@ -6569,10 +6629,10 @@
         <v>1</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -6587,13 +6647,13 @@
         <v>1</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59">
         <v>1</v>
@@ -6602,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -6611,10 +6671,10 @@
         <v>1</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -6626,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>0.6538461538307693</v>
+        <v>0.8333333333083335</v>
       </c>
     </row>
     <row r="60" spans="1:32">
@@ -6667,10 +6727,10 @@
         <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -6685,13 +6745,13 @@
         <v>1</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60">
         <v>1</v>
@@ -6700,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -6709,10 +6769,10 @@
         <v>1</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -6724,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>0.5769230769076923</v>
+        <v>0.749999999975</v>
       </c>
     </row>
     <row r="61" spans="1:32">
@@ -6765,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -6783,13 +6843,13 @@
         <v>1</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>1</v>
@@ -6798,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -6807,10 +6867,10 @@
         <v>1</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -6822,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="62" spans="1:32">
@@ -6863,10 +6923,10 @@
         <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -6881,13 +6941,13 @@
         <v>1</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62">
         <v>1</v>
@@ -6896,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>1</v>
@@ -6905,10 +6965,10 @@
         <v>1</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -6920,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="AF62">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="63" spans="1:32">
@@ -6961,10 +7021,10 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -6979,13 +7039,13 @@
         <v>1</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
         <v>1</v>
@@ -6994,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63">
         <v>1</v>
@@ -7003,10 +7063,10 @@
         <v>1</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -7018,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="64" spans="1:32">
@@ -7059,10 +7119,10 @@
         <v>1</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -7077,13 +7137,13 @@
         <v>1</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64">
         <v>1</v>
@@ -7092,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64">
         <v>1</v>
@@ -7101,10 +7161,10 @@
         <v>1</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -7116,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="65" spans="1:32">
@@ -7157,10 +7217,10 @@
         <v>1</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -7175,13 +7235,13 @@
         <v>1</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65">
         <v>1</v>
@@ -7190,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65">
         <v>1</v>
@@ -7199,10 +7259,10 @@
         <v>1</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -7214,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="66" spans="1:32">
@@ -7255,10 +7315,10 @@
         <v>1</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -7273,13 +7333,13 @@
         <v>1</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66">
         <v>1</v>
@@ -7288,7 +7348,7 @@
         <v>1</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y66">
         <v>1</v>
@@ -7297,10 +7357,10 @@
         <v>1</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -7312,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="67" spans="1:32">
@@ -7353,10 +7413,10 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -7371,13 +7431,13 @@
         <v>1</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -7386,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67">
         <v>1</v>
@@ -7395,10 +7455,10 @@
         <v>1</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -7410,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="68" spans="1:32">
@@ -7451,10 +7511,10 @@
         <v>1</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -7469,13 +7529,13 @@
         <v>1</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68">
         <v>1</v>
@@ -7484,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y68">
         <v>1</v>
@@ -7493,10 +7553,10 @@
         <v>1</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -7508,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="69" spans="1:32">
@@ -7549,10 +7609,10 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -7567,13 +7627,13 @@
         <v>1</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69">
         <v>1</v>
@@ -7582,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69">
         <v>1</v>
@@ -7591,10 +7651,10 @@
         <v>1</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -7606,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="AF69">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="70" spans="1:32">
@@ -7647,10 +7707,10 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -7665,13 +7725,13 @@
         <v>1</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70">
         <v>1</v>
@@ -7680,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="X70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70">
         <v>1</v>
@@ -7689,10 +7749,10 @@
         <v>1</v>
       </c>
       <c r="AA70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -7704,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="71" spans="1:32">
@@ -7745,10 +7805,10 @@
         <v>1</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -7763,13 +7823,13 @@
         <v>1</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V71">
         <v>1</v>
@@ -7778,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71">
         <v>1</v>
@@ -7787,10 +7847,10 @@
         <v>1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -7802,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="72" spans="1:32">
@@ -7843,10 +7903,10 @@
         <v>1</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -7861,13 +7921,13 @@
         <v>1</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72">
         <v>1</v>
@@ -7876,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72">
         <v>1</v>
@@ -7885,10 +7945,10 @@
         <v>1</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -7900,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="73" spans="1:32">
@@ -7941,10 +8001,10 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -7959,13 +8019,13 @@
         <v>1</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V73">
         <v>1</v>
@@ -7974,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="X73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y73">
         <v>1</v>
@@ -7983,10 +8043,10 @@
         <v>1</v>
       </c>
       <c r="AA73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -7998,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>0.5064102563999999</v>
+        <v>0.6736111110916666</v>
       </c>
     </row>
     <row r="74" spans="1:32">
@@ -8039,10 +8099,10 @@
         <v>1</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -8057,13 +8117,13 @@
         <v>1</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74">
         <v>1</v>
@@ -8072,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="X74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74">
         <v>1</v>
@@ -8081,10 +8141,10 @@
         <v>1</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -8096,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>0.4294871794769231</v>
+        <v>0.5902777777583332</v>
       </c>
     </row>
     <row r="75" spans="1:32">
@@ -8137,10 +8197,10 @@
         <v>1</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -8155,13 +8215,13 @@
         <v>1</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75">
         <v>1</v>
@@ -8170,7 +8230,7 @@
         <v>1</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75">
         <v>1</v>
@@ -8179,10 +8239,10 @@
         <v>1</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -8194,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="AF75">
-        <v>0.4294871794769231</v>
+        <v>0.5902777777583332</v>
       </c>
     </row>
     <row r="76" spans="1:32">
@@ -8235,10 +8295,10 @@
         <v>1</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -8253,13 +8313,13 @@
         <v>1</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V76">
         <v>1</v>
@@ -8268,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="X76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76">
         <v>1</v>
@@ -8277,10 +8337,10 @@
         <v>1</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -8292,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>0.4294871794769231</v>
+        <v>0.5902777777583332</v>
       </c>
     </row>
     <row r="77" spans="1:32">
@@ -8333,10 +8393,10 @@
         <v>1</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -8351,13 +8411,13 @@
         <v>1</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77">
         <v>1</v>
@@ -8366,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77">
         <v>1</v>
@@ -8375,10 +8435,10 @@
         <v>1</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -8390,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="AF77">
-        <v>0.4294871794769231</v>
+        <v>0.5902777777583332</v>
       </c>
     </row>
     <row r="78" spans="1:32">
@@ -8431,10 +8491,10 @@
         <v>1</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -8449,13 +8509,13 @@
         <v>1</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78">
         <v>1</v>
@@ -8464,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78">
         <v>1</v>
@@ -8473,10 +8533,10 @@
         <v>1</v>
       </c>
       <c r="AA78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -8488,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>0.4294871794769231</v>
+        <v>0.5902777777583332</v>
       </c>
     </row>
     <row r="79" spans="1:32">
@@ -8529,10 +8589,10 @@
         <v>1</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -8547,13 +8607,13 @@
         <v>1</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79">
         <v>1</v>
@@ -8562,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y79">
         <v>1</v>
@@ -8571,10 +8631,10 @@
         <v>1</v>
       </c>
       <c r="AA79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -8586,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>0.4294871794769231</v>
+        <v>0.5902777777583332</v>
       </c>
     </row>
     <row r="80" spans="1:32">
@@ -8627,10 +8687,10 @@
         <v>1</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -8645,13 +8705,13 @@
         <v>1</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80">
         <v>1</v>
@@ -8660,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="X80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80">
         <v>1</v>
@@ -8669,10 +8729,10 @@
         <v>1</v>
       </c>
       <c r="AA80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -8684,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>0.4294871794769231</v>
+        <v>0.5902777777583332</v>
       </c>
     </row>
     <row r="81" spans="1:32">
@@ -8725,10 +8785,10 @@
         <v>1</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -8743,13 +8803,13 @@
         <v>1</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V81">
         <v>1</v>
@@ -8767,10 +8827,10 @@
         <v>1</v>
       </c>
       <c r="AA81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -8782,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="AF81">
-        <v>0.3910256410153847</v>
+        <v>0.5069444444249999</v>
       </c>
     </row>
     <row r="82" spans="1:32">
@@ -8823,10 +8883,10 @@
         <v>1</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -8841,13 +8901,13 @@
         <v>1</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V82">
         <v>1</v>
@@ -8865,10 +8925,10 @@
         <v>1</v>
       </c>
       <c r="AA82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -8880,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="AF82">
-        <v>0.3910256410153847</v>
+        <v>0.5069444444249999</v>
       </c>
     </row>
     <row r="83" spans="1:32">
@@ -8921,10 +8981,10 @@
         <v>1</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -8939,13 +8999,13 @@
         <v>1</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83">
         <v>1</v>
@@ -8963,10 +9023,10 @@
         <v>1</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -8978,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="AF83">
-        <v>0.3910256410153847</v>
+        <v>0.5069444444249999</v>
       </c>
     </row>
     <row r="84" spans="1:32">
@@ -9019,10 +9079,10 @@
         <v>1</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -9037,13 +9097,13 @@
         <v>1</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V84">
         <v>1</v>
@@ -9061,10 +9121,10 @@
         <v>1</v>
       </c>
       <c r="AA84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -9076,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>0.3910256410153847</v>
+        <v>0.5069444444249999</v>
       </c>
     </row>
     <row r="85" spans="1:32">
@@ -9117,10 +9177,10 @@
         <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -9135,13 +9195,13 @@
         <v>1</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85">
         <v>1</v>
@@ -9159,10 +9219,10 @@
         <v>1</v>
       </c>
       <c r="AA85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -9174,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="AF85">
-        <v>0.3910256410153847</v>
+        <v>0.5069444444249999</v>
       </c>
     </row>
     <row r="86" spans="1:32">
@@ -9215,10 +9275,10 @@
         <v>1</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -9233,13 +9293,13 @@
         <v>1</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86">
         <v>1</v>
@@ -9257,10 +9317,10 @@
         <v>1</v>
       </c>
       <c r="AA86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -9272,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>0.3910256410153847</v>
+        <v>0.5069444444249999</v>
       </c>
     </row>
     <row r="87" spans="1:32">
@@ -9313,10 +9373,10 @@
         <v>1</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -9331,13 +9391,13 @@
         <v>1</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87">
         <v>1</v>
@@ -9355,10 +9415,10 @@
         <v>1</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -9370,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="AF87">
-        <v>0.3910256410153847</v>
+        <v>0.5069444444249999</v>
       </c>
     </row>
     <row r="88" spans="1:32">
@@ -9411,10 +9471,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -9429,13 +9489,13 @@
         <v>1</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V88">
         <v>1</v>
@@ -9453,10 +9513,10 @@
         <v>1</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -9468,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>0.2692307692307692</v>
+        <v>0.3749999999916667</v>
       </c>
     </row>
     <row r="89" spans="1:32">
@@ -9509,10 +9569,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -9527,13 +9587,13 @@
         <v>1</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V89">
         <v>1</v>
@@ -9551,10 +9611,10 @@
         <v>1</v>
       </c>
       <c r="AA89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -9566,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="AF89">
-        <v>0.2692307692307692</v>
+        <v>0.3749999999916667</v>
       </c>
     </row>
     <row r="90" spans="1:32">
@@ -9607,10 +9667,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -9625,13 +9685,13 @@
         <v>1</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -9649,10 +9709,10 @@
         <v>1</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -9664,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="AF90">
-        <v>0.2692307692307692</v>
+        <v>0.3749999999916667</v>
       </c>
     </row>
     <row r="91" spans="1:32">
@@ -9705,10 +9765,10 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -9723,13 +9783,13 @@
         <v>1</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V91">
         <v>1</v>
@@ -9747,10 +9807,10 @@
         <v>1</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -9762,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="AF91">
-        <v>0.2692307692307692</v>
+        <v>0.3749999999916667</v>
       </c>
     </row>
     <row r="92" spans="1:32">
@@ -9803,10 +9863,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -9821,13 +9881,13 @@
         <v>1</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92">
         <v>1</v>
@@ -9845,10 +9905,10 @@
         <v>1</v>
       </c>
       <c r="AA92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -9860,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="AF92">
-        <v>0.2692307692307692</v>
+        <v>0.3749999999916667</v>
       </c>
     </row>
     <row r="93" spans="1:32">
@@ -9901,10 +9961,10 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -9919,13 +9979,13 @@
         <v>1</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93">
         <v>1</v>
@@ -9943,10 +10003,10 @@
         <v>1</v>
       </c>
       <c r="AA93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -9958,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="AF93">
-        <v>0.2692307692307692</v>
+        <v>0.3749999999916667</v>
       </c>
     </row>
     <row r="94" spans="1:32">
@@ -9999,10 +10059,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -10017,13 +10077,13 @@
         <v>1</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V94">
         <v>1</v>
@@ -10041,10 +10101,10 @@
         <v>1</v>
       </c>
       <c r="AA94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -10056,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="AF94">
-        <v>0.2692307692307692</v>
+        <v>0.3749999999916667</v>
       </c>
     </row>
     <row r="95" spans="1:32">
@@ -10097,10 +10157,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -10115,13 +10175,13 @@
         <v>1</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V95">
         <v>1</v>
@@ -10139,10 +10199,10 @@
         <v>1</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -10154,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>0.2692307692307692</v>
+        <v>0.3749999999916667</v>
       </c>
     </row>
     <row r="96" spans="1:32">
@@ -10213,13 +10273,13 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V96">
         <v>0</v>
@@ -10237,10 +10297,10 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -10252,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="97" spans="1:32">
@@ -10311,13 +10371,13 @@
         <v>0</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V97">
         <v>0</v>
@@ -10335,10 +10395,10 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -10350,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="98" spans="1:32">
@@ -10409,13 +10469,13 @@
         <v>0</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V98">
         <v>0</v>
@@ -10433,10 +10493,10 @@
         <v>0</v>
       </c>
       <c r="AA98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -10448,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AF98">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="99" spans="1:32">
@@ -10507,13 +10567,13 @@
         <v>0</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V99">
         <v>0</v>
@@ -10531,10 +10591,10 @@
         <v>0</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -10546,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="AF99">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="100" spans="1:32">
@@ -10605,13 +10665,13 @@
         <v>0</v>
       </c>
       <c r="S100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V100">
         <v>0</v>
@@ -10629,10 +10689,10 @@
         <v>0</v>
       </c>
       <c r="AA100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -10644,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="AF100">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="101" spans="1:32">
@@ -10703,13 +10763,13 @@
         <v>0</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V101">
         <v>0</v>
@@ -10727,10 +10787,10 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -10742,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="AF101">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="102" spans="1:32">
@@ -10801,13 +10861,13 @@
         <v>0</v>
       </c>
       <c r="S102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V102">
         <v>0</v>
@@ -10825,10 +10885,10 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -10840,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="AF102">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="103" spans="1:32">
@@ -10899,13 +10959,13 @@
         <v>0</v>
       </c>
       <c r="S103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V103">
         <v>0</v>
@@ -10923,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="AA103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -10938,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="AF103">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="104" spans="1:32">
@@ -10997,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="S104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V104">
         <v>0</v>
@@ -11021,10 +11081,10 @@
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -11036,7 +11096,7 @@
         <v>0</v>
       </c>
       <c r="AF104">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="105" spans="1:32">
@@ -11095,13 +11155,13 @@
         <v>0</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V105">
         <v>0</v>
@@ -11119,10 +11179,10 @@
         <v>0</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -11134,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="AF105">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="106" spans="1:32">
@@ -11193,13 +11253,13 @@
         <v>0</v>
       </c>
       <c r="S106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V106">
         <v>0</v>
@@ -11217,10 +11277,10 @@
         <v>0</v>
       </c>
       <c r="AA106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -11232,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="AF106">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="107" spans="1:32">
@@ -11291,13 +11351,13 @@
         <v>0</v>
       </c>
       <c r="S107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V107">
         <v>0</v>
@@ -11315,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="AA107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -11330,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AF107">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="108" spans="1:32">
@@ -11389,13 +11449,13 @@
         <v>0</v>
       </c>
       <c r="S108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V108">
         <v>0</v>
@@ -11413,10 +11473,10 @@
         <v>0</v>
       </c>
       <c r="AA108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -11428,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="AF108">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="109" spans="1:32">
@@ -11487,13 +11547,13 @@
         <v>0</v>
       </c>
       <c r="S109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V109">
         <v>0</v>
@@ -11511,10 +11571,10 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -11526,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="AF109">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="110" spans="1:32">
@@ -11585,13 +11645,13 @@
         <v>0</v>
       </c>
       <c r="S110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V110">
         <v>0</v>
@@ -11609,10 +11669,10 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -11624,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="AF110">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="111" spans="1:32">
@@ -11683,13 +11743,13 @@
         <v>0</v>
       </c>
       <c r="S111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V111">
         <v>0</v>
@@ -11707,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -11722,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="AF111">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="112" spans="1:32">
@@ -11781,13 +11841,13 @@
         <v>0</v>
       </c>
       <c r="S112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V112">
         <v>0</v>
@@ -11805,10 +11865,10 @@
         <v>0</v>
       </c>
       <c r="AA112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -11820,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="AF112">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="113" spans="1:32">
@@ -11879,13 +11939,13 @@
         <v>0</v>
       </c>
       <c r="S113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -11903,10 +11963,10 @@
         <v>0</v>
       </c>
       <c r="AA113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -11918,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="AF113">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="114" spans="1:32">
@@ -11977,13 +12037,13 @@
         <v>0</v>
       </c>
       <c r="S114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V114">
         <v>0</v>
@@ -12001,10 +12061,10 @@
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -12016,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="AF114">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="115" spans="1:32">
@@ -12075,13 +12135,13 @@
         <v>0</v>
       </c>
       <c r="S115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V115">
         <v>0</v>
@@ -12099,10 +12159,10 @@
         <v>0</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -12114,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="AF115">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="116" spans="1:32">
@@ -12173,13 +12233,13 @@
         <v>0</v>
       </c>
       <c r="S116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V116">
         <v>0</v>
@@ -12197,10 +12257,10 @@
         <v>0</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -12212,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="AF116">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="117" spans="1:32">
@@ -12271,13 +12331,13 @@
         <v>0</v>
       </c>
       <c r="S117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V117">
         <v>0</v>
@@ -12295,10 +12355,10 @@
         <v>0</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -12310,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="AF117">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="118" spans="1:32">
@@ -12369,13 +12429,13 @@
         <v>0</v>
       </c>
       <c r="S118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V118">
         <v>0</v>
@@ -12393,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -12408,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="AF118">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="119" spans="1:32">
@@ -12467,13 +12527,13 @@
         <v>0</v>
       </c>
       <c r="S119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V119">
         <v>0</v>
@@ -12491,10 +12551,10 @@
         <v>0</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -12506,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="AF119">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="120" spans="1:32">
@@ -12565,13 +12625,13 @@
         <v>0</v>
       </c>
       <c r="S120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -12589,10 +12649,10 @@
         <v>0</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -12604,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="AF120">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="121" spans="1:32">
@@ -12663,13 +12723,13 @@
         <v>0</v>
       </c>
       <c r="S121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V121">
         <v>0</v>
@@ -12687,10 +12747,10 @@
         <v>0</v>
       </c>
       <c r="AA121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -12702,7 +12762,7 @@
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="122" spans="1:32">
@@ -12761,13 +12821,13 @@
         <v>0</v>
       </c>
       <c r="S122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V122">
         <v>0</v>
@@ -12785,10 +12845,10 @@
         <v>0</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -12800,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="AF122">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -12859,13 +12919,13 @@
         <v>0</v>
       </c>
       <c r="S123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V123">
         <v>0</v>
@@ -12883,10 +12943,10 @@
         <v>0</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -12898,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="AF123">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="124" spans="1:32">
@@ -12957,13 +13017,13 @@
         <v>0</v>
       </c>
       <c r="S124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V124">
         <v>0</v>
@@ -12981,10 +13041,10 @@
         <v>0</v>
       </c>
       <c r="AA124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -12996,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="AF124">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="125" spans="1:32">
@@ -13055,13 +13115,13 @@
         <v>0</v>
       </c>
       <c r="S125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V125">
         <v>0</v>
@@ -13079,10 +13139,10 @@
         <v>0</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -13094,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="AF125">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="126" spans="1:32">
@@ -13153,13 +13213,13 @@
         <v>0</v>
       </c>
       <c r="S126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V126">
         <v>0</v>
@@ -13177,10 +13237,10 @@
         <v>0</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -13192,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="AF126">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="127" spans="1:32">
@@ -13251,13 +13311,13 @@
         <v>0</v>
       </c>
       <c r="S127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V127">
         <v>0</v>
@@ -13275,10 +13335,10 @@
         <v>0</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -13290,7 +13350,7 @@
         <v>0</v>
       </c>
       <c r="AF127">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="128" spans="1:32">
@@ -13349,13 +13409,13 @@
         <v>0</v>
       </c>
       <c r="S128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V128">
         <v>0</v>
@@ -13373,10 +13433,10 @@
         <v>0</v>
       </c>
       <c r="AA128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -13388,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="AF128">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="129" spans="1:32">
@@ -13447,13 +13507,13 @@
         <v>0</v>
       </c>
       <c r="S129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V129">
         <v>0</v>
@@ -13471,10 +13531,10 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -13486,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="AF129">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="130" spans="1:32">
@@ -13545,13 +13605,13 @@
         <v>0</v>
       </c>
       <c r="S130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V130">
         <v>0</v>
@@ -13569,10 +13629,10 @@
         <v>0</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -13584,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="AF130">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="131" spans="1:32">
@@ -13643,13 +13703,13 @@
         <v>0</v>
       </c>
       <c r="S131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V131">
         <v>0</v>
@@ -13667,10 +13727,10 @@
         <v>0</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -13682,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="AF131">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="132" spans="1:32">
@@ -13741,13 +13801,13 @@
         <v>0</v>
       </c>
       <c r="S132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V132">
         <v>0</v>
@@ -13765,10 +13825,10 @@
         <v>0</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -13780,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="AF132">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="133" spans="1:32">
@@ -13839,13 +13899,13 @@
         <v>0</v>
       </c>
       <c r="S133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V133">
         <v>0</v>
@@ -13863,10 +13923,10 @@
         <v>0</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -13878,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="AF133">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="134" spans="1:32">
@@ -13937,13 +13997,13 @@
         <v>0</v>
       </c>
       <c r="S134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V134">
         <v>0</v>
@@ -13961,10 +14021,10 @@
         <v>0</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -13976,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="AF134">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="135" spans="1:32">
@@ -14035,13 +14095,13 @@
         <v>0</v>
       </c>
       <c r="S135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V135">
         <v>0</v>
@@ -14059,10 +14119,10 @@
         <v>0</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -14074,7 +14134,7 @@
         <v>0</v>
       </c>
       <c r="AF135">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="136" spans="1:32">
@@ -14133,13 +14193,13 @@
         <v>0</v>
       </c>
       <c r="S136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V136">
         <v>0</v>
@@ -14157,10 +14217,10 @@
         <v>0</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC136">
         <v>0</v>
@@ -14172,7 +14232,7 @@
         <v>0</v>
       </c>
       <c r="AF136">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="137" spans="1:32">
@@ -14231,13 +14291,13 @@
         <v>0</v>
       </c>
       <c r="S137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V137">
         <v>0</v>
@@ -14255,10 +14315,10 @@
         <v>0</v>
       </c>
       <c r="AA137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC137">
         <v>0</v>
@@ -14270,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AF137">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="138" spans="1:32">
@@ -14329,13 +14389,13 @@
         <v>0</v>
       </c>
       <c r="S138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V138">
         <v>0</v>
@@ -14353,10 +14413,10 @@
         <v>0</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC138">
         <v>0</v>
@@ -14368,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="AF138">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="139" spans="1:32">
@@ -14427,13 +14487,13 @@
         <v>0</v>
       </c>
       <c r="S139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V139">
         <v>0</v>
@@ -14451,10 +14511,10 @@
         <v>0</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>0</v>
@@ -14466,7 +14526,7 @@
         <v>0</v>
       </c>
       <c r="AF139">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="140" spans="1:32">
@@ -14525,13 +14585,13 @@
         <v>0</v>
       </c>
       <c r="S140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V140">
         <v>0</v>
@@ -14549,10 +14609,10 @@
         <v>0</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>0</v>
@@ -14564,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="AF140">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="141" spans="1:32">
@@ -14623,13 +14683,13 @@
         <v>0</v>
       </c>
       <c r="S141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V141">
         <v>0</v>
@@ -14647,10 +14707,10 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC141">
         <v>0</v>
@@ -14662,7 +14722,7 @@
         <v>0</v>
       </c>
       <c r="AF141">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="142" spans="1:32">
@@ -14721,13 +14781,13 @@
         <v>0</v>
       </c>
       <c r="S142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V142">
         <v>0</v>
@@ -14745,10 +14805,10 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC142">
         <v>0</v>
@@ -14760,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="AF142">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="143" spans="1:32">
@@ -14819,13 +14879,13 @@
         <v>0</v>
       </c>
       <c r="S143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V143">
         <v>0</v>
@@ -14843,10 +14903,10 @@
         <v>0</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC143">
         <v>0</v>
@@ -14858,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="AF143">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="144" spans="1:32">
@@ -14917,13 +14977,13 @@
         <v>0</v>
       </c>
       <c r="S144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V144">
         <v>0</v>
@@ -14941,10 +15001,10 @@
         <v>0</v>
       </c>
       <c r="AA144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -14956,7 +15016,7 @@
         <v>0</v>
       </c>
       <c r="AF144">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="145" spans="1:32">
@@ -15015,13 +15075,13 @@
         <v>0</v>
       </c>
       <c r="S145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V145">
         <v>0</v>
@@ -15039,10 +15099,10 @@
         <v>0</v>
       </c>
       <c r="AA145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC145">
         <v>0</v>
@@ -15054,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="AF145">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="146" spans="1:32">
@@ -15113,13 +15173,13 @@
         <v>0</v>
       </c>
       <c r="S146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V146">
         <v>0</v>
@@ -15137,10 +15197,10 @@
         <v>0</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC146">
         <v>0</v>
@@ -15152,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="AF146">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="147" spans="1:32">
@@ -15211,13 +15271,13 @@
         <v>0</v>
       </c>
       <c r="S147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V147">
         <v>0</v>
@@ -15235,10 +15295,10 @@
         <v>0</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC147">
         <v>0</v>
@@ -15250,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="AF147">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="148" spans="1:32">
@@ -15309,13 +15369,13 @@
         <v>0</v>
       </c>
       <c r="S148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V148">
         <v>0</v>
@@ -15333,10 +15393,10 @@
         <v>0</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC148">
         <v>0</v>
@@ -15348,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="AF148">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="149" spans="1:32">
@@ -15407,13 +15467,13 @@
         <v>0</v>
       </c>
       <c r="S149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V149">
         <v>0</v>
@@ -15431,10 +15491,10 @@
         <v>0</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC149">
         <v>0</v>
@@ -15446,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="AF149">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="150" spans="1:32">
@@ -15505,13 +15565,13 @@
         <v>0</v>
       </c>
       <c r="S150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V150">
         <v>0</v>
@@ -15529,10 +15589,10 @@
         <v>0</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC150">
         <v>0</v>
@@ -15544,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="AF150">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="151" spans="1:32">
@@ -15603,13 +15663,13 @@
         <v>0</v>
       </c>
       <c r="S151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V151">
         <v>0</v>
@@ -15627,10 +15687,10 @@
         <v>0</v>
       </c>
       <c r="AA151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC151">
         <v>0</v>
@@ -15642,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AF151">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="152" spans="1:32">
@@ -15701,13 +15761,13 @@
         <v>0</v>
       </c>
       <c r="S152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V152">
         <v>0</v>
@@ -15725,10 +15785,10 @@
         <v>0</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC152">
         <v>0</v>
@@ -15740,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="AF152">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="153" spans="1:32">
@@ -15799,13 +15859,13 @@
         <v>0</v>
       </c>
       <c r="S153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V153">
         <v>0</v>
@@ -15823,10 +15883,10 @@
         <v>0</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC153">
         <v>0</v>
@@ -15838,7 +15898,7 @@
         <v>0</v>
       </c>
       <c r="AF153">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="154" spans="1:32">
@@ -15897,13 +15957,13 @@
         <v>0</v>
       </c>
       <c r="S154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V154">
         <v>0</v>
@@ -15921,10 +15981,10 @@
         <v>0</v>
       </c>
       <c r="AA154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC154">
         <v>0</v>
@@ -15936,7 +15996,7 @@
         <v>0</v>
       </c>
       <c r="AF154">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="155" spans="1:32">
@@ -15995,13 +16055,13 @@
         <v>0</v>
       </c>
       <c r="S155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V155">
         <v>0</v>
@@ -16019,10 +16079,10 @@
         <v>0</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC155">
         <v>0</v>
@@ -16034,7 +16094,7 @@
         <v>0</v>
       </c>
       <c r="AF155">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="156" spans="1:32">
@@ -16093,13 +16153,13 @@
         <v>0</v>
       </c>
       <c r="S156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V156">
         <v>0</v>
@@ -16117,10 +16177,10 @@
         <v>0</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC156">
         <v>0</v>
@@ -16132,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="AF156">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="157" spans="1:32">
@@ -16191,13 +16251,13 @@
         <v>0</v>
       </c>
       <c r="S157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V157">
         <v>0</v>
@@ -16215,10 +16275,10 @@
         <v>0</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC157">
         <v>0</v>
@@ -16230,7 +16290,7 @@
         <v>0</v>
       </c>
       <c r="AF157">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="158" spans="1:32">
@@ -16289,13 +16349,13 @@
         <v>0</v>
       </c>
       <c r="S158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V158">
         <v>0</v>
@@ -16313,10 +16373,10 @@
         <v>0</v>
       </c>
       <c r="AA158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC158">
         <v>0</v>
@@ -16328,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="AF158">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="159" spans="1:32">
@@ -16387,13 +16447,13 @@
         <v>0</v>
       </c>
       <c r="S159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V159">
         <v>0</v>
@@ -16411,10 +16471,10 @@
         <v>0</v>
       </c>
       <c r="AA159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC159">
         <v>0</v>
@@ -16426,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="AF159">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="160" spans="1:32">
@@ -16485,13 +16545,13 @@
         <v>0</v>
       </c>
       <c r="S160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V160">
         <v>0</v>
@@ -16509,10 +16569,10 @@
         <v>0</v>
       </c>
       <c r="AA160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC160">
         <v>0</v>
@@ -16524,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="AF160">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="161" spans="1:32">
@@ -16583,13 +16643,13 @@
         <v>0</v>
       </c>
       <c r="S161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V161">
         <v>0</v>
@@ -16607,10 +16667,10 @@
         <v>0</v>
       </c>
       <c r="AA161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC161">
         <v>0</v>
@@ -16622,7 +16682,7 @@
         <v>0</v>
       </c>
       <c r="AF161">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="162" spans="1:32">
@@ -16681,13 +16741,13 @@
         <v>0</v>
       </c>
       <c r="S162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V162">
         <v>0</v>
@@ -16705,10 +16765,10 @@
         <v>0</v>
       </c>
       <c r="AA162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC162">
         <v>0</v>
@@ -16720,7 +16780,7 @@
         <v>0</v>
       </c>
       <c r="AF162">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="163" spans="1:32">
@@ -16779,13 +16839,13 @@
         <v>0</v>
       </c>
       <c r="S163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V163">
         <v>0</v>
@@ -16803,10 +16863,10 @@
         <v>0</v>
       </c>
       <c r="AA163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC163">
         <v>0</v>
@@ -16818,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="AF163">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="164" spans="1:32">
@@ -16877,13 +16937,13 @@
         <v>0</v>
       </c>
       <c r="S164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V164">
         <v>0</v>
@@ -16901,10 +16961,10 @@
         <v>0</v>
       </c>
       <c r="AA164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC164">
         <v>0</v>
@@ -16916,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="AF164">
-        <v>0.2307692307692308</v>
+        <v>0.2916666666583334</v>
       </c>
     </row>
     <row r="165" spans="1:32">
@@ -17014,7 +17074,7 @@
         <v>0</v>
       </c>
       <c r="AF165">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:32">
@@ -17112,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="AF166">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:32">
@@ -17210,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="AF167">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:32">
@@ -17308,7 +17368,7 @@
         <v>0</v>
       </c>
       <c r="AF168">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:32">
@@ -17406,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="AF169">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:32">
@@ -17504,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="AF170">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:32">
@@ -17602,7 +17662,7 @@
         <v>0</v>
       </c>
       <c r="AF171">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:32">
@@ -17700,7 +17760,7 @@
         <v>0</v>
       </c>
       <c r="AF172">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:32">
@@ -17798,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="AF173">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:32">
@@ -17896,7 +17956,7 @@
         <v>0</v>
       </c>
       <c r="AF174">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:32">
@@ -17994,7 +18054,7 @@
         <v>0</v>
       </c>
       <c r="AF175">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:32">
@@ -18092,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="AF176">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:32">
@@ -18190,7 +18250,7 @@
         <v>0</v>
       </c>
       <c r="AF177">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:32">
@@ -18288,7 +18348,7 @@
         <v>0</v>
       </c>
       <c r="AF178">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:32">
@@ -18386,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="AF179">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:32">
@@ -18484,7 +18544,7 @@
         <v>0</v>
       </c>
       <c r="AF180">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:32">
@@ -18582,7 +18642,7 @@
         <v>0</v>
       </c>
       <c r="AF181">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:32">
@@ -18680,7 +18740,7 @@
         <v>0</v>
       </c>
       <c r="AF182">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:32">
@@ -18778,7 +18838,7 @@
         <v>0</v>
       </c>
       <c r="AF183">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:32">
@@ -18876,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="AF184">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:32">
@@ -18974,7 +19034,7 @@
         <v>0</v>
       </c>
       <c r="AF185">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:32">
@@ -19072,7 +19132,7 @@
         <v>0</v>
       </c>
       <c r="AF186">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:32">
@@ -19170,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="AF187">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:32">
@@ -19268,7 +19328,7 @@
         <v>0</v>
       </c>
       <c r="AF188">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:32">
@@ -19366,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="AF189">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:32">
@@ -19464,7 +19524,7 @@
         <v>0</v>
       </c>
       <c r="AF190">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:32">
@@ -19562,7 +19622,7 @@
         <v>0</v>
       </c>
       <c r="AF191">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:32">
@@ -19660,7 +19720,7 @@
         <v>0</v>
       </c>
       <c r="AF192">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:32">
@@ -19758,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="AF193">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:32">
@@ -19856,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="AF194">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:32">
@@ -19954,7 +20014,7 @@
         <v>0</v>
       </c>
       <c r="AF195">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:32">
@@ -20052,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="AF196">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:32">
@@ -20150,7 +20210,7 @@
         <v>0</v>
       </c>
       <c r="AF197">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:32">
@@ -20248,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="AF198">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:32">
@@ -20346,7 +20406,7 @@
         <v>0</v>
       </c>
       <c r="AF199">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:32">
@@ -20444,7 +20504,7 @@
         <v>0</v>
       </c>
       <c r="AF200">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:32">
@@ -20542,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="AF201">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:32">
@@ -20640,7 +20700,7 @@
         <v>0</v>
       </c>
       <c r="AF202">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:32">
@@ -20738,7 +20798,7 @@
         <v>0</v>
       </c>
       <c r="AF203">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:32">
@@ -20836,7 +20896,7 @@
         <v>0</v>
       </c>
       <c r="AF204">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:32">
@@ -20934,7 +20994,7 @@
         <v>0</v>
       </c>
       <c r="AF205">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:32">
@@ -21032,7 +21092,7 @@
         <v>0</v>
       </c>
       <c r="AF206">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:32">
@@ -21130,7 +21190,7 @@
         <v>0</v>
       </c>
       <c r="AF207">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:32">
@@ -21228,7 +21288,7 @@
         <v>0</v>
       </c>
       <c r="AF208">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:32">
@@ -21326,7 +21386,7 @@
         <v>0</v>
       </c>
       <c r="AF209">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:32">
@@ -21424,7 +21484,7 @@
         <v>0</v>
       </c>
       <c r="AF210">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:32">
@@ -21522,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="AF211">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:32">
@@ -21620,7 +21680,7 @@
         <v>0</v>
       </c>
       <c r="AF212">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:32">
@@ -21718,7 +21778,7 @@
         <v>0</v>
       </c>
       <c r="AF213">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:32">
@@ -21816,7 +21876,7 @@
         <v>0</v>
       </c>
       <c r="AF214">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:32">
@@ -21914,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="AF215">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:32">
@@ -22012,7 +22072,7 @@
         <v>0</v>
       </c>
       <c r="AF216">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:32">
@@ -22110,7 +22170,7 @@
         <v>0</v>
       </c>
       <c r="AF217">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:32">
@@ -22208,7 +22268,7 @@
         <v>0</v>
       </c>
       <c r="AF218">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:32">
@@ -22306,7 +22366,7 @@
         <v>0</v>
       </c>
       <c r="AF219">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:32">
@@ -22404,7 +22464,7 @@
         <v>0</v>
       </c>
       <c r="AF220">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:32">
@@ -22502,7 +22562,1183 @@
         <v>0</v>
       </c>
       <c r="AF221">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:32">
+      <c r="A222" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>1</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:32">
+      <c r="A223" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>1</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:32">
+      <c r="A224" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>1</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:32">
+      <c r="A225" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>1</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:32">
+      <c r="A226" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>1</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:32">
+      <c r="A227" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>1</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:32">
+      <c r="A228" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>1</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:32">
+      <c r="A229" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>1</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:32">
+      <c r="A230" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>1</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:32">
+      <c r="A231" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>1</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:32">
+      <c r="A232" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>1</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:32">
+      <c r="A233" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>1</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0.1666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -22684,6 +23920,9 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
+      <c r="C13" s="2">
+        <v>43922</v>
+      </c>
       <c r="D13" s="2">
         <v>43977</v>
       </c>
@@ -22695,6 +23934,9 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
+      <c r="C14" s="2">
+        <v>43922</v>
+      </c>
       <c r="D14" s="2">
         <v>43977</v>
       </c>
@@ -22762,6 +24004,9 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
+      <c r="C19" s="2">
+        <v>43908</v>
+      </c>
       <c r="D19" s="2">
         <v>44046</v>
       </c>
@@ -22773,6 +24018,9 @@
       <c r="B20" t="s">
         <v>35</v>
       </c>
+      <c r="C20" s="2">
+        <v>43908</v>
+      </c>
       <c r="D20" s="2">
         <v>44046</v>
       </c>
@@ -22784,6 +24032,9 @@
       <c r="B21" t="s">
         <v>35</v>
       </c>
+      <c r="C21" s="2">
+        <v>43922</v>
+      </c>
       <c r="D21" s="2">
         <v>44046</v>
       </c>
@@ -22823,6 +24074,9 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
+      <c r="C24" s="2">
+        <v>43908</v>
+      </c>
       <c r="D24" s="2">
         <v>43962</v>
       </c>
@@ -22862,6 +24116,9 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
+      <c r="C27" s="2">
+        <v>43922</v>
+      </c>
       <c r="D27" s="2">
         <v>44046</v>
       </c>
@@ -22872,6 +24129,9 @@
       </c>
       <c r="B28" t="s">
         <v>37</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43922</v>
       </c>
       <c r="D28" s="2">
         <v>44046</v>
